--- a/public/baoCaoXNT/bao_cao_nhap_06_2024.xlsx
+++ b/public/baoCaoXNT/bao_cao_nhap_06_2024.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
-    <t>BÁO CÁO XUẤT NHẬP TỒN</t>
+    <t>BÁO CÁO NHẬP KHO</t>
   </si>
   <si>
     <t>Từ ngày: 01/06/2024</t>
@@ -26,25 +26,25 @@
     <t>Đến ngày: 30/06/2024</t>
   </si>
   <si>
-    <t>Mã sản phẩm</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm</t>
+    <t>MÃ SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>TÊN SẢN PHẨM</t>
   </si>
   <si>
     <t>Mã danh mục</t>
   </si>
   <si>
-    <t>Nhập trong kỳ</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Giá nhập</t>
-  </si>
-  <si>
-    <t>Thành tiền</t>
+    <t>NHẬP TRONG KỲ</t>
+  </si>
+  <si>
+    <t>SỐ LƯỢNG</t>
+  </si>
+  <si>
+    <t>GIÁ</t>
+  </si>
+  <si>
+    <t>THÀNH TIỀN</t>
   </si>
   <si>
     <t>Smart Tivi Toshiba 43 inch 43V31MP</t>
